--- a/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_8.134.89.37_Arcade/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_OutNet_8.134.89.37_Arcade/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_8.134.156.170_Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_OutNet_8.134.89.37_Arcade\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05935684-F00A-485E-ABF0-399B7EDEFF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D371B8-0F7B-431D-B4A4-534DBBF8ACB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1200" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>##var</t>
   </si>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>Pay</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Season</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +653,7 @@
   <dimension ref="A1:AMK38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2046,21 @@
       <c r="AMK19"/>
     </row>
     <row r="20" spans="1:1025" x14ac:dyDescent="0.3">
-      <c r="B20" s="2"/>
+      <c r="B20" s="2">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="21" spans="1:1025" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
